--- a/Data to predict.xlsx
+++ b/Data to predict.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t xml:space="preserve">جنس</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t xml:space="preserve">زن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مرد</t>
   </si>
 </sst>
 </file>
@@ -301,10 +298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD3" activeCellId="0" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -539,56 +536,58 @@
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>63.6</v>
+      </c>
       <c r="I4" s="3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="K4" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="L4" s="3" t="n">
-        <v>45</v>
-      </c>
       <c r="M4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="5" t="n">
         <v>0</v>
@@ -597,64 +596,72 @@
         <v>0</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>108</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>179</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>155</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>100</v>
+      </c>
       <c r="I5" s="3" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>12.6</v>
+        <v>12</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="O5" s="5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="5" t="n">
         <v>0</v>
@@ -666,160 +673,12 @@
         <v>1</v>
       </c>
       <c r="V5" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="X5" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>85</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>120</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>72</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>142</v>
-      </c>
-      <c r="O6" s="5" t="n">
-        <v>93</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>67</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>85</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>179</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>155</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>162</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Data to predict.xlsx
+++ b/Data to predict.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">جنس</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve">زن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مرد</t>
   </si>
 </sst>
 </file>
@@ -298,20 +301,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD3" activeCellId="0" sqref="AD3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z5" activeCellId="0" sqref="Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="1" style="1" width="9"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="9"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="17" style="2" width="9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="24" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="24" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,58 +539,56 @@
     </row>
     <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>63.6</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5" t="n">
         <v>0</v>
@@ -596,90 +597,302 @@
         <v>0</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>108</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>130</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D7" s="3" t="n">
         <v>85</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E7" s="3" t="n">
         <v>179</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F7" s="3" t="n">
         <v>155</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G7" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H7" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I7" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J7" s="3" t="n">
         <v>13.6</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K7" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L7" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="M5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
+      <c r="M7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="n">
         <v>162</v>
       </c>
-      <c r="O5" s="5" t="n">
+      <c r="O7" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="P7" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="Q5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3" t="n">
+      <c r="Q7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>128</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
